--- a/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H2">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N2">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q2">
-        <v>1091.240244905295</v>
+        <v>1122.52305028591</v>
       </c>
       <c r="R2">
-        <v>1091.240244905295</v>
+        <v>10102.70745257319</v>
       </c>
       <c r="S2">
-        <v>0.1430893489847113</v>
+        <v>0.1356953539668783</v>
       </c>
       <c r="T2">
-        <v>0.1430893489847113</v>
+        <v>0.1356953539668783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H3">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N3">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q3">
-        <v>146.3389906633964</v>
+        <v>148.42200781957</v>
       </c>
       <c r="R3">
-        <v>146.3389906633964</v>
+        <v>1335.79807037613</v>
       </c>
       <c r="S3">
-        <v>0.01918876343029523</v>
+        <v>0.01794188269222763</v>
       </c>
       <c r="T3">
-        <v>0.01918876343029523</v>
+        <v>0.01794188269222763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H4">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N4">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q4">
-        <v>158.6083169813124</v>
+        <v>177.7532174097807</v>
       </c>
       <c r="R4">
-        <v>158.6083169813124</v>
+        <v>1599.778956688026</v>
       </c>
       <c r="S4">
-        <v>0.0207975841492048</v>
+        <v>0.02148756388479341</v>
       </c>
       <c r="T4">
-        <v>0.0207975841492048</v>
+        <v>0.02148756388479342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H5">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I5">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J5">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N5">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q5">
-        <v>327.2743950610057</v>
+        <v>342.7632695088029</v>
       </c>
       <c r="R5">
-        <v>327.2743950610057</v>
+        <v>3084.869425579227</v>
       </c>
       <c r="S5">
-        <v>0.04291399657158784</v>
+        <v>0.04143467982327395</v>
       </c>
       <c r="T5">
-        <v>0.04291399657158784</v>
+        <v>0.04143467982327396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H6">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N6">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q6">
-        <v>1649.241604025433</v>
+        <v>1685.22682532568</v>
       </c>
       <c r="R6">
-        <v>1649.241604025433</v>
+        <v>15167.04142793112</v>
       </c>
       <c r="S6">
-        <v>0.2162575184889565</v>
+        <v>0.2037173762434561</v>
       </c>
       <c r="T6">
-        <v>0.2162575184889565</v>
+        <v>0.2037173762434561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H7">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N7">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q7">
-        <v>221.1688515154686</v>
+        <v>222.82370859336</v>
       </c>
       <c r="R7">
-        <v>221.1688515154686</v>
+        <v>2005.41337734024</v>
       </c>
       <c r="S7">
-        <v>0.02900086129227319</v>
+        <v>0.02693587628520171</v>
       </c>
       <c r="T7">
-        <v>0.02900086129227319</v>
+        <v>0.02693587628520171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H8">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J8">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N8">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q8">
-        <v>239.7120490481325</v>
+        <v>266.858208560272</v>
       </c>
       <c r="R8">
-        <v>239.7120490481325</v>
+        <v>2401.723877042448</v>
       </c>
       <c r="S8">
-        <v>0.03143234608714899</v>
+        <v>0.03225895366721422</v>
       </c>
       <c r="T8">
-        <v>0.03143234608714899</v>
+        <v>0.03225895366721422</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H9">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J9">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N9">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q9">
-        <v>494.6248553302851</v>
+        <v>514.585296369144</v>
       </c>
       <c r="R9">
-        <v>494.6248553302851</v>
+        <v>4631.267667322296</v>
       </c>
       <c r="S9">
-        <v>0.06485789803968407</v>
+        <v>0.0622052562031371</v>
       </c>
       <c r="T9">
-        <v>0.06485789803968407</v>
+        <v>0.0622052562031371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H10">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N10">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q10">
-        <v>1467.786563746809</v>
+        <v>1678.285537966007</v>
       </c>
       <c r="R10">
-        <v>1467.786563746809</v>
+        <v>15104.56984169406</v>
       </c>
       <c r="S10">
-        <v>0.192464147868066</v>
+        <v>0.2028782839459601</v>
       </c>
       <c r="T10">
-        <v>0.192464147868066</v>
+        <v>0.2028782839459601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H11">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I11">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J11">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N11">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q11">
-        <v>196.8351197188885</v>
+        <v>221.9059191488467</v>
       </c>
       <c r="R11">
-        <v>196.8351197188885</v>
+        <v>1997.15327233962</v>
       </c>
       <c r="S11">
-        <v>0.02581009018811234</v>
+        <v>0.02682492999905767</v>
       </c>
       <c r="T11">
-        <v>0.02581009018811234</v>
+        <v>0.02682492999905767</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H12">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I12">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J12">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N12">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q12">
-        <v>213.3381330559976</v>
+        <v>265.7590452416804</v>
       </c>
       <c r="R12">
-        <v>213.3381330559976</v>
+        <v>2391.831407175124</v>
       </c>
       <c r="S12">
-        <v>0.02797405494813444</v>
+        <v>0.03212608213682943</v>
       </c>
       <c r="T12">
-        <v>0.02797405494813444</v>
+        <v>0.03212608213682943</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H13">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I13">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J13">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N13">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q13">
-        <v>440.2045855361564</v>
+        <v>512.4657689800219</v>
       </c>
       <c r="R13">
-        <v>440.2045855361564</v>
+        <v>4612.191920820198</v>
       </c>
       <c r="S13">
-        <v>0.05772201663064564</v>
+        <v>0.06194903873015412</v>
       </c>
       <c r="T13">
-        <v>0.05772201663064564</v>
+        <v>0.06194903873015412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H14">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I14">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J14">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N14">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q14">
-        <v>620.4484626958878</v>
+        <v>697.40448193143</v>
       </c>
       <c r="R14">
-        <v>620.4484626958878</v>
+        <v>6276.64033738287</v>
       </c>
       <c r="S14">
-        <v>0.08135657296384297</v>
+        <v>0.08430521583469407</v>
       </c>
       <c r="T14">
-        <v>0.08135657296384297</v>
+        <v>0.08430521583469407</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H15">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I15">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J15">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N15">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q15">
-        <v>83.20422767898562</v>
+        <v>92.21206944860999</v>
       </c>
       <c r="R15">
-        <v>83.20422767898562</v>
+        <v>829.90862503749</v>
       </c>
       <c r="S15">
-        <v>0.01091019033338071</v>
+        <v>0.01114698660366971</v>
       </c>
       <c r="T15">
-        <v>0.01091019033338071</v>
+        <v>0.01114698660366971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H16">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I16">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J16">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N16">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q16">
-        <v>90.18022099283731</v>
+        <v>110.435051171322</v>
       </c>
       <c r="R16">
-        <v>90.18022099283731</v>
+        <v>993.915460541898</v>
       </c>
       <c r="S16">
-        <v>0.0118249204732019</v>
+        <v>0.01334985803206981</v>
       </c>
       <c r="T16">
-        <v>0.0118249204732019</v>
+        <v>0.01334985803206981</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H17">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I17">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J17">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N17">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q17">
-        <v>186.0790016161384</v>
+        <v>212.952990440619</v>
       </c>
       <c r="R17">
-        <v>186.0790016161384</v>
+        <v>1916.576913965571</v>
       </c>
       <c r="S17">
-        <v>0.02439968955075429</v>
+        <v>0.02574266195138261</v>
       </c>
       <c r="T17">
-        <v>0.02439968955075429</v>
+        <v>0.02574266195138262</v>
       </c>
     </row>
   </sheetData>
